--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1349.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1349.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.142638842313277</v>
+        <v>1.210687756538391</v>
       </c>
       <c r="B1">
-        <v>2.60983459576143</v>
+        <v>2.598259687423706</v>
       </c>
       <c r="C1">
-        <v>4.246352739165715</v>
+        <v>9.375737190246582</v>
       </c>
       <c r="D1">
-        <v>2.515461898289935</v>
+        <v>2.050379276275635</v>
       </c>
       <c r="E1">
-        <v>1.173222570426063</v>
+        <v>1.195765614509583</v>
       </c>
     </row>
   </sheetData>
